--- a/data/StatesWheretheMostPeopleBoughtGunsFebruary2023.xlsx
+++ b/data/StatesWheretheMostPeopleBoughtGunsFebruary2023.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\missm\source\repos\MichelleRobertsBU\Gun-Law-Effects-on-Homicides-by-Firearms\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D36DBC-6553-4526-8EFF-8296DFDA8F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51DDC83-7B12-4F4D-B563-B501B5E947DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10992" yWindow="696" windowWidth="12012" windowHeight="10992" xr2:uid="{293D4A1A-1284-412F-BE65-27FE7034790B}"/>
+    <workbookView xWindow="10404" yWindow="720" windowWidth="12012" windowHeight="10992" xr2:uid="{293D4A1A-1284-412F-BE65-27FE7034790B}"/>
   </bookViews>
   <sheets>
     <sheet name="Gun Sales 2023" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,27 +38,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="61">
   <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>Firearm Background Checks per 1,000 Residents, Feb 2023</t>
-  </si>
-  <si>
-    <t>Firearm Background Checks, Feb 2023</t>
-  </si>
-  <si>
-    <t>Firearm Background Checks per 1,000 Residents, Feb 2022</t>
-  </si>
-  <si>
-    <t>Firearm Background Checks, Feb 2022</t>
-  </si>
-  <si>
     <t>Hawaii</t>
   </si>
   <si>
-    <t>2022 Population</t>
-  </si>
-  <si>
     <t>New Jersey</t>
   </si>
   <si>
@@ -69,9 +50,6 @@
     <t>Rhode Island</t>
   </si>
   <si>
-    <t>Firearm Type</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -93,9 +71,6 @@
     <t>Nebraska</t>
   </si>
   <si>
-    <t>Rank 2023</t>
-  </si>
-  <si>
     <t>Iowa</t>
   </si>
   <si>
@@ -220,6 +195,30 @@
   </si>
   <si>
     <t>Oregon</t>
+  </si>
+  <si>
+    <t>allState</t>
+  </si>
+  <si>
+    <t>Firearm_Background_Checks_per_Residents_Feb_2023</t>
+  </si>
+  <si>
+    <t>Firearm_Background_Checks_Feb_2023</t>
+  </si>
+  <si>
+    <t>Firearm_Background_Checks_Feb_2022</t>
+  </si>
+  <si>
+    <t>Firearm_Background_Checks_per_Residents_Feb_2022</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>Rank_2023</t>
+  </si>
+  <si>
+    <t>Firearm_Type</t>
   </si>
 </sst>
 </file>
@@ -589,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EA59524-29A4-410D-BA1B-8E825FD9D1C6}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -605,33 +604,33 @@
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>1.2</v>
@@ -652,12 +651,12 @@
         <v>50</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>1.4</v>
@@ -678,12 +677,12 @@
         <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>1.5</v>
@@ -704,12 +703,12 @@
         <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>2.1</v>
@@ -730,12 +729,12 @@
         <v>48</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>2.5</v>
@@ -756,12 +755,12 @@
         <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>2.7</v>
@@ -782,12 +781,12 @@
         <v>28</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>3.5</v>
@@ -808,12 +807,12 @@
         <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>3.5</v>
@@ -834,12 +833,12 @@
         <v>41</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>3.8</v>
@@ -860,12 +859,12 @@
         <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>4.0999999999999996</v>
@@ -886,12 +885,12 @@
         <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>4.2</v>
@@ -912,12 +911,12 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>4.4000000000000004</v>
@@ -938,12 +937,12 @@
         <v>13</v>
       </c>
       <c r="H13" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>4.5999999999999996</v>
@@ -964,12 +963,12 @@
         <v>12</v>
       </c>
       <c r="H14" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>4.7</v>
@@ -990,12 +989,12 @@
         <v>9</v>
       </c>
       <c r="H15" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>4.9000000000000004</v>
@@ -1016,12 +1015,12 @@
         <v>26</v>
       </c>
       <c r="H16" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>5</v>
@@ -1042,12 +1041,12 @@
         <v>2</v>
       </c>
       <c r="H17" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -1068,12 +1067,12 @@
         <v>30</v>
       </c>
       <c r="H18" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>5.2</v>
@@ -1094,12 +1093,12 @@
         <v>21</v>
       </c>
       <c r="H19" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <v>5.2</v>
@@ -1120,12 +1119,12 @@
         <v>33</v>
       </c>
       <c r="H20" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>5.3</v>
@@ -1146,12 +1145,12 @@
         <v>19</v>
       </c>
       <c r="H21" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B22">
         <v>5.3</v>
@@ -1172,12 +1171,12 @@
         <v>25</v>
       </c>
       <c r="H22" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B23">
         <v>5.4</v>
@@ -1198,12 +1197,12 @@
         <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B24">
         <v>5.4</v>
@@ -1224,12 +1223,12 @@
         <v>23</v>
       </c>
       <c r="H24" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <v>5.6</v>
@@ -1250,12 +1249,12 @@
         <v>41</v>
       </c>
       <c r="H25" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B26">
         <v>5.9</v>
@@ -1276,12 +1275,12 @@
         <v>5</v>
       </c>
       <c r="H26" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>5.9</v>
@@ -1302,12 +1301,12 @@
         <v>18</v>
       </c>
       <c r="H27" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B28">
         <v>6.1</v>
@@ -1328,12 +1327,12 @@
         <v>7</v>
       </c>
       <c r="H28" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B29">
         <v>6.1</v>
@@ -1354,12 +1353,12 @@
         <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B30">
         <v>6.1</v>
@@ -1380,12 +1379,12 @@
         <v>20</v>
       </c>
       <c r="H30" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B31">
         <v>6.1</v>
@@ -1406,12 +1405,12 @@
         <v>40</v>
       </c>
       <c r="H31" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B32">
         <v>6.3</v>
@@ -1432,12 +1431,12 @@
         <v>27</v>
       </c>
       <c r="H32" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B33">
         <v>6.5</v>
@@ -1458,12 +1457,12 @@
         <v>34</v>
       </c>
       <c r="H33" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B34">
         <v>6.6</v>
@@ -1484,12 +1483,12 @@
         <v>42</v>
       </c>
       <c r="H34" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B35">
         <v>6.7</v>
@@ -1510,12 +1509,12 @@
         <v>17</v>
       </c>
       <c r="H35" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B36">
         <v>6.9</v>
@@ -1536,12 +1535,12 @@
         <v>24</v>
       </c>
       <c r="H36" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>7.1</v>
@@ -1562,12 +1561,12 @@
         <v>8</v>
       </c>
       <c r="H37" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B38">
         <v>7.1</v>
@@ -1588,12 +1587,12 @@
         <v>43</v>
       </c>
       <c r="H38" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B39">
         <v>7.2</v>
@@ -1614,12 +1613,12 @@
         <v>44</v>
       </c>
       <c r="H39" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B40">
         <v>7.3</v>
@@ -1640,12 +1639,12 @@
         <v>26</v>
       </c>
       <c r="H40" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B41">
         <v>7.5</v>
@@ -1666,12 +1665,12 @@
         <v>16</v>
       </c>
       <c r="H41" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>7.7</v>
@@ -1692,12 +1691,12 @@
         <v>38</v>
       </c>
       <c r="H42" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B43">
         <v>8</v>
@@ -1718,12 +1717,12 @@
         <v>3</v>
       </c>
       <c r="H43" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B44">
         <v>8.1</v>
@@ -1744,12 +1743,12 @@
         <v>45</v>
       </c>
       <c r="H44" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>8.6</v>
@@ -1770,12 +1769,12 @@
         <v>39</v>
       </c>
       <c r="H45" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B46">
         <v>8.6</v>
@@ -1796,12 +1795,12 @@
         <v>40</v>
       </c>
       <c r="H46" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B47">
         <v>8.8000000000000007</v>
@@ -1822,12 +1821,12 @@
         <v>32</v>
       </c>
       <c r="H47" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B48">
         <v>9.6</v>
@@ -1848,12 +1847,12 @@
         <v>6</v>
       </c>
       <c r="H48" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B49">
         <v>9.6999999999999993</v>
@@ -1874,12 +1873,12 @@
         <v>11</v>
       </c>
       <c r="H49" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B50">
         <v>9.8000000000000007</v>
@@ -1900,12 +1899,12 @@
         <v>29</v>
       </c>
       <c r="H50" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B51">
         <v>10.3</v>
@@ -1926,7 +1925,7 @@
         <v>15</v>
       </c>
       <c r="H51" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/data/StatesWheretheMostPeopleBoughtGunsFebruary2023.xlsx
+++ b/data/StatesWheretheMostPeopleBoughtGunsFebruary2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\missm\source\repos\MichelleRobertsBU\Gun-Law-Effects-on-Homicides-by-Firearms\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51DDC83-7B12-4F4D-B563-B501B5E947DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C57ACC4-EDB5-4D1B-9603-5E9FE0B01704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10404" yWindow="720" windowWidth="12012" windowHeight="10992" xr2:uid="{293D4A1A-1284-412F-BE65-27FE7034790B}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{293D4A1A-1284-412F-BE65-27FE7034790B}"/>
   </bookViews>
   <sheets>
     <sheet name="Gun Sales 2023" sheetId="1" r:id="rId1"/>
@@ -588,7 +588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EA59524-29A4-410D-BA1B-8E825FD9D1C6}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
